--- a/tEPCRUNNING/server_info.xlsx
+++ b/tEPCRUNNING/server_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">Root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port</t>
   </si>
   <si>
     <t xml:space="preserve">172.16.29.191</t>
@@ -79,6 +82,7 @@
   <si>
     <t xml:space="preserve">eno49
 eno50
+ens1f0
 ens2f0</t>
   </si>
   <si>
@@ -91,7 +95,7 @@
     <t xml:space="preserve">CONTROLLER03</t>
   </si>
   <si>
-    <t xml:space="preserve">172.16.29.235</t>
+    <t xml:space="preserve">172.16.29.239</t>
   </si>
   <si>
     <t xml:space="preserve">vepc/123456a@</t>
@@ -103,7 +107,7 @@
     <t xml:space="preserve">COMPUTE01</t>
   </si>
   <si>
-    <t xml:space="preserve">172.16.29.236</t>
+    <t xml:space="preserve">172.16.29.246</t>
   </si>
   <si>
     <t xml:space="preserve">COMPUTE02</t>
@@ -120,7 +124,7 @@
   <si>
     <t xml:space="preserve">eno1
 eno2
-ens2f0</t>
+Ens2f0</t>
   </si>
   <si>
     <t xml:space="preserve">172.16.29.240</t>
@@ -208,6 +212,11 @@
   </si>
   <si>
     <t xml:space="preserve">COMPUTE12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eno1
+eno2
+ens2f0</t>
   </si>
   <si>
     <t xml:space="preserve">172.16.29.200</t>
@@ -296,7 +305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +332,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF99CC"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -333,8 +342,14 @@
         <bgColor rgb="FFFFCC00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFF8080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -354,6 +369,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF009900"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF009900"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF009900"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF009900"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF009900"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF009900"/>
       </bottom>
       <diagonal/>
     </border>
@@ -387,6 +428,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF009900"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF009900"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF009900"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF009900"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -413,7 +469,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -430,6 +486,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -458,55 +518,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,7 +636,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFFF66"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -570,7 +650,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF009900"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -590,7 +670,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M9" activeCellId="0" sqref="M9"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -630,587 +710,590 @@
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>64</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="24.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="15" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="22" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E5" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="18" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="22" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" s="19" t="n">
+        <v>64</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E9" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <v>9</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="B10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E10" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E11" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+    </row>
+    <row r="12" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="22" t="n">
         <v>11</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="B12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E12" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="n">
         <v>12</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="B13" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E13" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="n">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E14" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="22" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>64</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="B15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E15" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="n">
         <v>15</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="B16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E16" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="n">
         <v>16</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="B17" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E17" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="29" t="n">
         <v>17</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="E5" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="10" t="s">
+      <c r="B18" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="18" t="n">
+        <v>72</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="15" t="n">
-        <v>40</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>64</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="I18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E9" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E10" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="81.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E11" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-    </row>
-    <row r="12" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E12" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E13" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E14" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E15" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E16" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="35.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E17" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="E18" s="16" t="n">
-        <v>256</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/tEPCRUNNING/server_info.xlsx
+++ b/tEPCRUNNING/server_info.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
   <si>
     <t xml:space="preserve">STT</t>
   </si>
@@ -229,6 +229,36 @@
   </si>
   <si>
     <t xml:space="preserve">COMPUTE14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percona db → false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waite time → pause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log docker → failse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looix rabbitmq voi lenh echo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">haproxy thieu sysctl -p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deployment va service setup index  → tran queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thieu mkdir nova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openvswitch and eno2 bus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean skip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add ansible service </t>
   </si>
 </sst>
 </file>
@@ -667,10 +697,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1296,6 +1326,86 @@
         <v>37</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K11:P11"/>
